--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontBoard\Rev2\Project Outputs for FrontBoardRev2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F966E09-7E61-4B17-BC30-4C2C805D2F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A8DA70-2608-4143-B609-9573FEEDADC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10428" windowHeight="10782" xr2:uid="{DB1D03D9-DD36-40D7-9EEE-0AE5E1305FA0}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="14055" xr2:uid="{DB1D03D9-DD36-40D7-9EEE-0AE5E1305FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontPanelRev2b28JUN22" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-FrontPanelRev2b28JUN22'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -396,18 +396,9 @@
     <t>Red</t>
   </si>
   <si>
-    <t>Bel Cinch</t>
-  </si>
-  <si>
-    <t>105-0802-001</t>
-  </si>
-  <si>
     <t>Digi-key</t>
   </si>
   <si>
-    <t>J117-ND</t>
-  </si>
-  <si>
     <t>J75, J78</t>
   </si>
   <si>
@@ -417,12 +408,6 @@
     <t>Black</t>
   </si>
   <si>
-    <t>105-0803-001</t>
-  </si>
-  <si>
-    <t>J118-ND</t>
-  </si>
-  <si>
     <t>J77, J79</t>
   </si>
   <si>
@@ -432,12 +417,6 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>105-0810-001</t>
-  </si>
-  <si>
-    <t>J325-ND</t>
-  </si>
-  <si>
     <t>J104</t>
   </si>
   <si>
@@ -2814,6 +2793,27 @@
   </si>
   <si>
     <t>Front Board Rev 2b</t>
+  </si>
+  <si>
+    <t>R9121920000</t>
+  </si>
+  <si>
+    <t>Radiall USA</t>
+  </si>
+  <si>
+    <t>2201-R921920000-ND</t>
+  </si>
+  <si>
+    <t>R9121921000</t>
+  </si>
+  <si>
+    <t>2201-R921921000-ND</t>
+  </si>
+  <si>
+    <t>R9121923000</t>
+  </si>
+  <si>
+    <t>2201-R921923000-ND</t>
   </si>
 </sst>
 </file>
@@ -3237,30 +3237,30 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.20703125" customWidth="1"/>
-    <col min="2" max="2" width="30.26171875" customWidth="1"/>
-    <col min="3" max="3" width="51.62890625" customWidth="1"/>
-    <col min="4" max="9" width="21.3671875" customWidth="1"/>
-    <col min="10" max="10" width="12.83984375" customWidth="1"/>
-    <col min="11" max="11" width="27.83984375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3295,12 +3295,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -3328,12 +3328,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -3361,12 +3361,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
@@ -3394,12 +3394,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
@@ -3427,9 +3427,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>37</v>
@@ -3460,9 +3460,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -3493,9 +3493,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>48</v>
@@ -3526,9 +3526,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>58</v>
@@ -3557,9 +3557,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>63</v>
@@ -3588,9 +3588,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>70</v>
@@ -3619,9 +3619,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>77</v>
@@ -3652,12 +3652,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>83</v>
@@ -3683,9 +3683,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>89</v>
@@ -3716,1603 +3716,1603 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D68" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>27</v>
@@ -5341,9 +5341,9 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>53</v>
@@ -5374,9 +5374,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>95</v>
@@ -5405,9 +5405,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>101</v>
@@ -5436,9 +5436,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>107</v>
@@ -5465,9 +5465,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>113</v>
@@ -5496,9 +5496,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>118</v>
@@ -5515,648 +5515,648 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="K75" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="K76" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
-        <v>122</v>
+        <v>551</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>134</v>
+        <v>555</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
         <v>99</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G82" s="4" t="s">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontBoard\Rev2\Project Outputs for FrontBoardRev2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A8DA70-2608-4143-B609-9573FEEDADC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17069D54-393E-4779-91B3-EED38AA04CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="14055" xr2:uid="{DB1D03D9-DD36-40D7-9EEE-0AE5E1305FA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20454" windowHeight="8934" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM-FrontPanelRev2b28JUN22" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM-FrontBoardRev2b20JUL22" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-FrontPanelRev2b28JUN22'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-FrontBoardRev2b20JUL22'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="530">
   <si>
     <t>Quantity</t>
   </si>
@@ -42,27 +42,21 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Capacitance</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Resistance</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
     <t>Supplier Part Number</t>
   </si>
   <si>
+    <t>C1, C5, C7, C10, C11, C13, C17, C25, C29, C33, C35, C37, C45, C47, C51, C75, C77, C81, C83, C122</t>
+  </si>
+  <si>
     <t>CAP CER 10NF 100V X7R 0805</t>
   </si>
   <si>
@@ -84,6 +78,9 @@
     <t>1276-1249-6-ND</t>
   </si>
   <si>
+    <t>C2, C4, C6, C8, C12, C14, C16, C21, C22, C24, C28, C32, C34, C38, C40, C44, C46, C48, C50, C52, C76, C78, C80, C82, C100, C102, C121</t>
+  </si>
+  <si>
     <t>CAP CER 1UF 50V X7R 0805</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
     <t>1276-1029-6-ND</t>
   </si>
   <si>
+    <t>C3, C42, C71, C73, C120</t>
+  </si>
+  <si>
     <t>CAP CER 100PF 50V COG 0805</t>
   </si>
   <si>
@@ -129,6 +129,9 @@
     <t>25YXJ100M5X11</t>
   </si>
   <si>
+    <t>C20, C27, C70, C72</t>
+  </si>
+  <si>
     <t>CAP CER 10PF 50V C0G 0805</t>
   </si>
   <si>
@@ -279,7 +282,10 @@
     <t>MMBD1503ADKR-ND</t>
   </si>
   <si>
-    <t>DIODE GP 75V 150MA SOD123FL</t>
+    <t>D70, D120</t>
+  </si>
+  <si>
+    <t>Diode; 500 mA (Surge); 1.0 V (Max.); 400 mW; 450 degC/W; 4 pF (Max.); 4 nS (Max</t>
   </si>
   <si>
     <t>SOD123</t>
@@ -288,13 +294,13 @@
     <t>1N4148</t>
   </si>
   <si>
-    <t>Vishay Semiconductor Diodes Division, Vishay Semiconductors</t>
-  </si>
-  <si>
-    <t>1N4148WFL-G3-08</t>
-  </si>
-  <si>
-    <t>1N4148WFL-G3-08GICT-ND, 1N4148WFL-G3-08GIDKR-ND</t>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>1N4148W-E3-18</t>
+  </si>
+  <si>
+    <t>1N4148W-E3-18CT-ND</t>
   </si>
   <si>
     <t>D73</t>
@@ -315,6 +321,27 @@
     <t>S1GFSCT-ND</t>
   </si>
   <si>
+    <t>D121</t>
+  </si>
+  <si>
+    <t>SBAT54T1G Series 30 200 mA Surface Mount Schottky Barrier Diode - SOD-123</t>
+  </si>
+  <si>
+    <t>BAT54</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>SBAT54T1G</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>50AC7280</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
@@ -345,9 +372,6 @@
     <t>640456-2</t>
   </si>
   <si>
-    <t>Digi-Key, [NoParam]</t>
-  </si>
-  <si>
     <t>A1921-ND</t>
   </si>
   <si>
@@ -384,37 +408,40 @@
     <t>277-1779-ND</t>
   </si>
   <si>
-    <t>J73, J76</t>
-  </si>
-  <si>
-    <t>Conn Tip Jack Panel Mount Red</t>
+    <t>J73, J76, J77, J79</t>
+  </si>
+  <si>
+    <t>Conn Banana Plug SKT 1 POS Solder ST Panel Mount 1 Port</t>
   </si>
   <si>
     <t>Banana-Turet</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Digi-key</t>
+    <t>Red, Blue</t>
+  </si>
+  <si>
+    <t>Radiall</t>
+  </si>
+  <si>
+    <t>R921921000</t>
+  </si>
+  <si>
+    <t>2201-R921921000-ND</t>
   </si>
   <si>
     <t>J75, J78</t>
   </si>
   <si>
-    <t>Conn Tip Jack Panel Mount Black</t>
+    <t>Conn Banana RCP 1 POS Solder Cup ST Cable Mount 1 Port</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>J77, J79</t>
-  </si>
-  <si>
-    <t>Conn Tip Jack Panel Mount Blue</t>
-  </si>
-  <si>
-    <t>Blue</t>
+    <t>R921920000</t>
+  </si>
+  <si>
+    <t>2201-R921920000-ND</t>
   </si>
   <si>
     <t>J104</t>
@@ -435,6 +462,9 @@
     <t>L70, L71</t>
   </si>
   <si>
+    <t>Fixed Ind 4.7UH 1.9A 108MOHM SMD</t>
+  </si>
+  <si>
     <t>4.7uH</t>
   </si>
   <si>
@@ -516,6 +546,9 @@
     <t>3306P-104-ND</t>
   </si>
   <si>
+    <t>Pot20</t>
+  </si>
+  <si>
     <t>Panel Control - 1/2" (12.5Mm) Sq 1-Turn / Tray Packaging Rohs Compliant: Yes</t>
   </si>
   <si>
@@ -576,9 +609,6 @@
     <t>BCP56</t>
   </si>
   <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
     <t>BCP56-16T3G</t>
   </si>
   <si>
@@ -600,6 +630,9 @@
     <t>BCP53-16T3GOSCT-ND</t>
   </si>
   <si>
+    <t>Q22, Q23</t>
+  </si>
+  <si>
     <t>Single N-Channel 250 V 14 Ohm 2.3 nC SIPMOS® Small Signal Mosfet - SOT-23</t>
   </si>
   <si>
@@ -642,6 +675,9 @@
     <t>MMBT3904LT1GOSCT-ND</t>
   </si>
   <si>
+    <t>R1, R3, R75, R85</t>
+  </si>
+  <si>
     <t>RES 1K OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -654,7 +690,7 @@
     <t>RK73H2ATTD1001F</t>
   </si>
   <si>
-    <t>2019-RK73H2ATTD1001FCT-ND, 2019-RK73H2ATTD1001FDKR-ND</t>
+    <t>R2, R9, R10, R11, R13, R16, R39, R40, R45, R55, R71, R74, R76, R77, R78, R79</t>
   </si>
   <si>
     <t>RES 10K OHM 1% 1/4W 0805</t>
@@ -663,7 +699,7 @@
     <t>RK73H2ATTD1002F</t>
   </si>
   <si>
-    <t>2019-RK73H2ATTD1002FCT-ND, 2019-RK73H2ATTD1002FDKR-ND</t>
+    <t>R4, R5, R6, R8, R12, R56, R62, R84</t>
   </si>
   <si>
     <t>RES 20K OHM 1% 1/4W 0805</t>
@@ -717,6 +753,9 @@
     <t>2019-RK73H2ATTD2211FCT-ND</t>
   </si>
   <si>
+    <t>R20, R25, R42, R43, R57, R63, R120, R122</t>
+  </si>
+  <si>
     <t>RES 49.9K OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -729,9 +768,6 @@
     <t>RK73H2ATTD4992F</t>
   </si>
   <si>
-    <t>2019-RK73H2ATTD4992FCT-ND, 2019-RK73H2ATTD4992FDKR-ND</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -750,6 +786,9 @@
     <t>2019-RK73H2ATTD9092FCT-ND</t>
   </si>
   <si>
+    <t>R22, R23, R26, R27, R31, R32, R58, R64, R72, R73, R89</t>
+  </si>
+  <si>
     <t>RES 100K OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -759,6 +798,9 @@
     <t>2019-RK73H2ATTD1003FCT-ND</t>
   </si>
   <si>
+    <t>R24, R37, R41, R44, R47, R68, R82, R83</t>
+  </si>
+  <si>
     <t>RES 100 OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -771,9 +813,6 @@
     <t>RK73H2ATTD1000F</t>
   </si>
   <si>
-    <t>2019-RK73H2ATTD1000FDKR-ND, 2019-RK73H2ATTD1000FCT-ND</t>
-  </si>
-  <si>
     <t>R29</t>
   </si>
   <si>
@@ -882,6 +921,9 @@
     <t>2019-RK73H2ATTD1502FCT-ND</t>
   </si>
   <si>
+    <t>R46, R61, R67, R88</t>
+  </si>
+  <si>
     <t>RES 1M OHM 1% 1/8W 0805</t>
   </si>
   <si>
@@ -984,6 +1026,9 @@
     <t>2019-RK73H2ATTD2001FCT-ND</t>
   </si>
   <si>
+    <t>R54, R87</t>
+  </si>
+  <si>
     <t>RES 4.99K OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -1206,7 +1251,16 @@
     <t>2019-RK73H2ATTD2493FDKR-ND</t>
   </si>
   <si>
-    <t>2X1H0.1LS0.9MMHole</t>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>2X1H-LS0.1-9mmHole</t>
+  </si>
+  <si>
+    <t>3310H-003-104L</t>
+  </si>
+  <si>
+    <t>3310H-003-104L-ND</t>
   </si>
   <si>
     <t>S3</t>
@@ -1293,6 +1347,9 @@
     <t>EG2352-ND</t>
   </si>
   <si>
+    <t>S71</t>
+  </si>
+  <si>
     <t>Switch Toggle ON OFF ON DPDT Round Lever PC Pins 5A 250VAC 28VDC PC Mount with Threads</t>
   </si>
   <si>
@@ -1353,6 +1410,9 @@
     <t>100DP1T1B1M2QE-ND</t>
   </si>
   <si>
+    <t>TP1, TP2, TP4, TP5, TP22, TP25, TP70</t>
+  </si>
+  <si>
     <t>TP Thru-Hole</t>
   </si>
   <si>
@@ -1410,22 +1470,25 @@
     <t>497-14376-6-ND</t>
   </si>
   <si>
-    <t>Dual Op-amp 40V 4MHz 8SOIC, IC AUDIO AMP 2 CIRCUIT 8SOIC, IC AUDIO AMP 2 CIRCUIT SOIC8</t>
+    <t>U4, U20, U70</t>
+  </si>
+  <si>
+    <t>40-V, dual 1MHz, rail-to-rail input/output, low-offset-voltage, low-power op amp 8-SOIC -40 to 125</t>
   </si>
   <si>
     <t>SOIC127P600X168_HS-8N</t>
   </si>
   <si>
-    <t>TLV9352</t>
+    <t>OPA2990</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>TLV9352IDR</t>
-  </si>
-  <si>
-    <t>296-TLV9352IDRTR-ND, 296-TLV9352IDRDKR-ND, 296-TLV9352IDRCT-ND</t>
+    <t>OPA2990IDR</t>
+  </si>
+  <si>
+    <t>296-53506-1-ND</t>
   </si>
   <si>
     <t>U5</t>
@@ -1464,19 +1527,22 @@
     <t>U21</t>
   </si>
   <si>
-    <t>OPAMP 4MHz 40V R-R  SOT-23-5</t>
+    <t>Single, 40-V, 5-MHz, 4-mV offset voltage, 20-V/µs, In to V+ op amp with -40°C to 125°C operation 5-SOT-23 -40 to 125</t>
   </si>
   <si>
     <t>SOT95P300X130-5M</t>
   </si>
   <si>
-    <t>TLV9351</t>
-  </si>
-  <si>
-    <t>TLV9351IDBVR</t>
-  </si>
-  <si>
-    <t>C335C393K5G5TA7301-ND</t>
+    <t>TL071</t>
+  </si>
+  <si>
+    <t>TL071HIDBVR</t>
+  </si>
+  <si>
+    <t>296-TL071HIDBVRCT-ND</t>
+  </si>
+  <si>
+    <t>U22, U23</t>
   </si>
   <si>
     <t>IC OPAMP DIFF 18MHZ RRO 8SOIC</t>
@@ -1491,6 +1557,9 @@
     <t>OPA209AIDR-ND</t>
   </si>
   <si>
+    <t>U24, U25</t>
+  </si>
+  <si>
     <t>OPTOISO 5KV TRANS W/BASE 6SMD</t>
   </si>
   <si>
@@ -1521,1329 +1590,44 @@
     <t>296-47934-ND</t>
   </si>
   <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Manufacturer Part #</t>
+  </si>
+  <si>
+    <t>2019-RK73H2ATTD1001FCT-ND</t>
+  </si>
+  <si>
+    <t>2019-RK73H2ATTD1002FCT-ND</t>
+  </si>
+  <si>
+    <t>2019-RK73H2ATTD4992FCT-ND</t>
+  </si>
+  <si>
+    <t>2019-RK73H2ATTD1000FCT-ND</t>
+  </si>
+  <si>
+    <t>Front Board Rev 2b</t>
+  </si>
+  <si>
     <t>Surface Mount</t>
   </si>
   <si>
     <t>Through Hole</t>
-  </si>
-  <si>
-    <t>Pot20, S1</t>
-  </si>
-  <si>
-    <t>Fixed Ind 4.7UH 1.9A 0.1OHM SMD</t>
-  </si>
-  <si>
-    <r>
-      <t>15,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C5,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C7, C10, C11, C13,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C17,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C25, C29, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C33, C35,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C37,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C45, C47, C51, C75, C77, C81, C83, C122</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C2, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C6,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C8, C12, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C14, C16, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C21,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C22, C24, C28,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C32, C34,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C38, C40,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C44, C46, C48, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C50,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C52,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C76, C78, C80, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C82, C100, C102, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C121</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C3, C42, C71,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C73,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C120</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C20,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C27, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C70,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> C72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D70, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D120</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Q22, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Q23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R4, R5, R6, R8,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R12, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R56,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R62,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R20, R25,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R42, R43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R57,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R63,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R120, R122</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R22, R23, R26,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R27, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R31,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R32, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R58,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R64,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R72, R73, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R89</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R24, R37, R41, R44, R47, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R68, R82,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R83</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R46, R61, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R67,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">R54, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R87</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">U4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">U20, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U24, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U22, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>S1, Pot20</t>
-  </si>
-  <si>
-    <t>S72</t>
-  </si>
-  <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>TP1, TP2, TP4, TP5, TP22, TP25, TP26</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R3,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R75, R85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R2, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R9, R10,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R11, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R13,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R16, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R39,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R40, R45, R55, R71,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R74, R76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R77, R78,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> R79</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>Front Board Rev 2b</t>
-  </si>
-  <si>
-    <t>R9121920000</t>
-  </si>
-  <si>
-    <t>Radiall USA</t>
-  </si>
-  <si>
-    <t>2201-R921920000-ND</t>
-  </si>
-  <si>
-    <t>R9121921000</t>
-  </si>
-  <si>
-    <t>2201-R921921000-ND</t>
-  </si>
-  <si>
-    <t>R9121923000</t>
-  </si>
-  <si>
-    <t>2201-R921923000-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2890,7 +1674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2902,23 +1686,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3233,34 +2008,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABBA252-473E-4392-B70E-805B3EB2BE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E6F5B-EB18-4853-97FF-935A9417A28D}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.89453125" customWidth="1"/>
+    <col min="2" max="2" width="35.20703125" customWidth="1"/>
+    <col min="3" max="3" width="33.89453125" customWidth="1"/>
+    <col min="4" max="4" width="23.7890625" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1015625" customWidth="1"/>
+    <col min="7" max="7" width="9.20703125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="21.3671875" customWidth="1"/>
+    <col min="10" max="10" width="12.83984375" customWidth="1"/>
+    <col min="11" max="11" width="27.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3274,105 +2053,105 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
@@ -3388,156 +2167,156 @@
         <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>508</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>507</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
@@ -3545,1814 +2324,1814 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B15" s="6" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>514</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>500</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>178</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>185</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>517</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>546</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>545</v>
+        <v>210</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>547</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
         <v>16</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>518</v>
+      <c r="B26" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>520</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>522</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>525</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>248</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>254</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>260</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>266</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>527</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>529</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>323</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>329</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>335</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>339</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>346</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>358</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>370</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>374</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>380</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>386</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>446</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G58" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="H58" s="4" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>453</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="F59" s="4" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
-        <v>457</v>
+        <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>535</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>466</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>471</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>182</v>
+        <v>484</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>477</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>463</v>
+        <v>100</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>516</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
+        <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>536</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>492</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D68" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B69" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>30</v>
@@ -5365,802 +4144,802 @@
         <v>31</v>
       </c>
       <c r="I70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F71" s="4" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="4" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3">
+        <v>6</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="4" t="s">
-        <v>551</v>
+        <v>124</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>553</v>
+        <v>123</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
-        <v>551</v>
+        <v>130</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>550</v>
+        <v>131</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
-        <v>551</v>
+        <v>130</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>555</v>
+        <v>136</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="3">
+        <v>2</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="3">
+        <v>2</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>510</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3">
+        <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>510</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3">
+        <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>499</v>
+        <v>172</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="3">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="3">
+        <v>2</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>510</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3">
+        <v>1</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>541</v>
+        <v>407</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>393</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>398</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="3">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="3">
+        <v>1</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>540</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3">
+        <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3">
+        <v>1</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>542</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3">
+        <v>1</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="3">
+        <v>1</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>430</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>510</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3">
+        <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>544</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3">
+        <v>7</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="110" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontBoard\Rev2\Project Outputs for FrontBoardRev2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17069D54-393E-4779-91B3-EED38AA04CA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2599D8-AF6A-47EE-AB4C-0691C1DEE181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20454" windowHeight="8934" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="529">
   <si>
     <t>Quantity</t>
   </si>
@@ -522,9 +522,6 @@
     <t>CT6EP102-ND</t>
   </si>
   <si>
-    <t>Pot2</t>
-  </si>
-  <si>
     <t>Res Conductive Plastic POT 100K Ohm 20% 1/4W 1(Elec)/1(Mech)Turn 3.18mm (9.53 X 9.75 X 20.24mm) Pin Panel...</t>
   </si>
   <si>
@@ -579,12 +576,6 @@
     <t>CT6EX103-ND</t>
   </si>
   <si>
-    <t>Pot100, Pot102</t>
-  </si>
-  <si>
-    <t>Res Conductive Plastic Potentiometer 100K Ohm 10% Panel Mount/Through Hole</t>
-  </si>
-  <si>
     <t>P260T</t>
   </si>
   <si>
@@ -1251,18 +1242,6 @@
     <t>2019-RK73H2ATTD2493FDKR-ND</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>2X1H-LS0.1-9mmHole</t>
-  </si>
-  <si>
-    <t>3310H-003-104L</t>
-  </si>
-  <si>
-    <t>3310H-003-104L-ND</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
@@ -1618,6 +1597,24 @@
   </si>
   <si>
     <t>Through Hole</t>
+  </si>
+  <si>
+    <t>Pot100</t>
+  </si>
+  <si>
+    <t>Pot102</t>
+  </si>
+  <si>
+    <t>P260T-S1AF3CB100K</t>
+  </si>
+  <si>
+    <t>Pot2, S1</t>
+  </si>
+  <si>
+    <t>POT Shaft 100K Ohm 10% 'PANEL MNT 1/8in Shaft</t>
+  </si>
+  <si>
+    <t>POT Shaft 100K Ohm 10% 'PANEL MNT 1/4in Shaft</t>
   </si>
 </sst>
 </file>
@@ -2011,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E6F5B-EB18-4853-97FF-935A9417A28D}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2031,12 +2028,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2053,19 +2050,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2562,30 +2559,30 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2593,30 +2590,30 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2624,30 +2621,30 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2655,30 +2652,30 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2686,30 +2683,30 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2717,13 +2714,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
@@ -2733,16 +2730,16 @@
         <v>160</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2750,32 +2747,32 @@
         <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2783,32 +2780,32 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2816,32 +2813,32 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2849,32 +2846,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2882,32 +2879,32 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2915,32 +2912,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2948,32 +2945,32 @@
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2981,32 +2978,32 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3014,32 +3011,32 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3047,32 +3044,32 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3080,32 +3077,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3113,32 +3110,32 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3146,32 +3143,32 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3179,32 +3176,32 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3212,32 +3209,32 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3245,13 +3242,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
@@ -3261,16 +3258,16 @@
         <v>160</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3278,32 +3275,32 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3311,32 +3308,32 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3344,13 +3341,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
@@ -3360,16 +3357,16 @@
         <v>160</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3377,32 +3374,32 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3410,32 +3407,32 @@
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3443,32 +3440,32 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3476,32 +3473,32 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3509,32 +3506,32 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3542,32 +3539,32 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3575,32 +3572,32 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3608,32 +3605,32 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3641,32 +3638,32 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3674,32 +3671,32 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3707,32 +3704,32 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3740,32 +3737,32 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3773,32 +3770,32 @@
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3806,32 +3803,32 @@
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3839,32 +3836,32 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3872,30 +3869,30 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3903,30 +3900,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3934,30 +3931,30 @@
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3965,30 +3962,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3996,30 +3993,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4027,30 +4024,30 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4058,30 +4055,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4089,35 +4086,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="6" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4468,32 +4465,32 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4501,32 +4498,32 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="I82" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4534,32 +4531,32 @@
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>161</v>
       </c>
       <c r="I83" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4567,65 +4564,65 @@
         <v>2</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>183</v>
+        <v>523</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>184</v>
+        <v>527</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="H84" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>187</v>
+        <v>525</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>407</v>
+        <v>524</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>165</v>
+        <v>528</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>409</v>
+        <v>184</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>410</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4633,30 +4630,30 @@
         <v>1</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4664,30 +4661,30 @@
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4695,30 +4692,30 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4726,30 +4723,30 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4757,30 +4754,30 @@
         <v>1</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4788,30 +4785,30 @@
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4819,30 +4816,30 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4850,30 +4847,30 @@
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4881,30 +4878,30 @@
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4912,30 +4909,30 @@
         <v>7</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontBoard\Rev2\Project Outputs for FrontBoardRev2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2599D8-AF6A-47EE-AB4C-0691C1DEE181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD2E5D-0179-4246-83D5-226E09DC106F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20454" windowHeight="8934" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="530">
   <si>
     <t>Quantity</t>
   </si>
@@ -537,12 +537,6 @@
     <t>Bourns</t>
   </si>
   <si>
-    <t>3306P-1-104</t>
-  </si>
-  <si>
-    <t>3306P-104-ND</t>
-  </si>
-  <si>
     <t>Pot20</t>
   </si>
   <si>
@@ -1615,6 +1609,15 @@
   </si>
   <si>
     <t>POT Shaft 100K Ohm 10% 'PANEL MNT 1/4in Shaft</t>
+  </si>
+  <si>
+    <t>Off-PCB-CCW-Switch</t>
+  </si>
+  <si>
+    <t>3310H-003-104L</t>
+  </si>
+  <si>
+    <t>3310H-003-104L-ND</t>
   </si>
 </sst>
 </file>
@@ -2008,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E6F5B-EB18-4853-97FF-935A9417A28D}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2028,12 +2031,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2050,19 +2053,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2559,30 +2562,30 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2590,30 +2593,30 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2621,30 +2624,30 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2652,30 +2655,30 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2683,30 +2686,30 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2714,13 +2717,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
@@ -2730,16 +2733,16 @@
         <v>160</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2747,32 +2750,32 @@
         <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2780,32 +2783,32 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2813,32 +2816,32 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2846,32 +2849,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2879,32 +2882,32 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="J30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2912,32 +2915,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2945,13 +2948,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
@@ -2961,16 +2964,16 @@
         <v>167</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2978,32 +2981,32 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3011,32 +3014,32 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3044,32 +3047,32 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3077,32 +3080,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="J36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3110,32 +3113,32 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3143,32 +3146,32 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="J38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3176,32 +3179,32 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="J39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3209,32 +3212,32 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="J40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3242,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
@@ -3258,16 +3261,16 @@
         <v>160</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3275,32 +3278,32 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3308,32 +3311,32 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="J43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3341,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
@@ -3357,16 +3360,16 @@
         <v>160</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3374,32 +3377,32 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="J45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3407,32 +3410,32 @@
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="J46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3440,32 +3443,32 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="J47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3473,32 +3476,32 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3506,13 +3509,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
@@ -3522,16 +3525,16 @@
         <v>167</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3539,32 +3542,32 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="J50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3572,32 +3575,32 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="J51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3605,32 +3608,32 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="J52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3638,32 +3641,32 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="J53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3671,32 +3674,32 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3704,32 +3707,32 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3737,32 +3740,32 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="J56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3770,32 +3773,32 @@
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="J57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3803,32 +3806,32 @@
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3836,32 +3839,32 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3869,30 +3872,30 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3900,30 +3903,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3931,30 +3934,30 @@
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3962,30 +3965,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3993,30 +3996,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4024,30 +4027,30 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4055,30 +4058,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4086,35 +4089,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4465,13 +4468,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>165</v>
+        <v>527</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
@@ -4484,13 +4487,13 @@
         <v>168</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>169</v>
+        <v>528</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>170</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4498,10 +4501,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>165</v>
@@ -4517,13 +4520,13 @@
         <v>168</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4531,32 +4534,32 @@
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>161</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4564,13 +4567,13 @@
         <v>2</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
@@ -4580,16 +4583,16 @@
         <v>167</v>
       </c>
       <c r="H84" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4597,13 +4600,13 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
@@ -4613,16 +4616,16 @@
         <v>167</v>
       </c>
       <c r="H85" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4630,30 +4633,30 @@
         <v>1</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I86" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4661,30 +4664,30 @@
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4692,30 +4695,30 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4723,30 +4726,30 @@
         <v>2</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4754,30 +4757,30 @@
         <v>1</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4785,30 +4788,30 @@
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4816,30 +4819,30 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4847,30 +4850,30 @@
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I93" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4878,30 +4881,30 @@
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4909,30 +4912,30 @@
         <v>7</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontBoard\Rev2\Project Outputs for FrontBoardRev2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD2E5D-0179-4246-83D5-226E09DC106F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A3007A-43AC-471B-A75A-69952FC36367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20454" windowHeight="8934" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontBoard\Rev2\Project Outputs for FrontBoardRev2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A3007A-43AC-471B-A75A-69952FC36367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20454" windowHeight="8934" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="5445" yWindow="2460" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM-FrontBoardRev2b20JUL22" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-FrontBoardRev2b20JUL22'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM-FrontBoardRev2b'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="533">
   <si>
     <t>Quantity</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Banana-Turet</t>
   </si>
   <si>
-    <t>Red, Blue</t>
-  </si>
-  <si>
     <t>Radiall</t>
   </si>
   <si>
@@ -1618,6 +1615,18 @@
   </si>
   <si>
     <t>3310H-003-104L-ND</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>R921923000</t>
+  </si>
+  <si>
+    <t>2201-R921923000-ND</t>
   </si>
 </sst>
 </file>
@@ -2009,37 +2018,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E6F5B-EB18-4853-97FF-935A9417A28D}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.89453125" customWidth="1"/>
-    <col min="2" max="2" width="35.20703125" customWidth="1"/>
-    <col min="3" max="3" width="33.89453125" customWidth="1"/>
-    <col min="4" max="4" width="23.7890625" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" customWidth="1"/>
-    <col min="7" max="7" width="9.20703125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="21.3671875" customWidth="1"/>
-    <col min="10" max="10" width="12.83984375" customWidth="1"/>
-    <col min="11" max="11" width="27.83984375" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2053,19 +2062,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2074,7 +2083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>20</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>27</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -2305,7 +2314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -2336,7 +2345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -2398,7 +2407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -2526,1601 +2535,1601 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="H25" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="4" t="s">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="4" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="H41" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="4" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="4" t="s">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="4" t="s">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3">
-        <v>1</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="4" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3">
-        <v>1</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="4" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3">
-        <v>1</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="4" t="s">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="4" t="s">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3">
-        <v>1</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="4" t="s">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3">
-        <v>1</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="4" t="s">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="4" t="s">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="4" t="s">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3">
-        <v>1</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I63" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="4" t="s">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>496</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="4" t="s">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>507</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I67" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>8</v>
       </c>
@@ -4151,7 +4160,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>1</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>6</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -4306,9 +4315,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>126</v>
@@ -4321,621 +4330,652 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>129</v>
+        <v>530</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="J76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>135</v>
+        <v>529</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>136</v>
+        <v>531</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G80" s="3"/>
       <c r="H80" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>524</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>527</v>
+        <v>157</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>528</v>
+        <v>161</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="3">
-        <v>1</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>521</v>
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>525</v>
+        <v>173</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>523</v>
+        <v>177</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I85" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>402</v>
+        <v>521</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>403</v>
+        <v>525</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>404</v>
+        <v>179</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G86" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H86" s="4" t="s">
-        <v>405</v>
+        <v>180</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>404</v>
+        <v>181</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>7</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="J96" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B538219E-E95C-440D-BAA7-88E53C52349F}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2460" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="532">
   <si>
     <t>Quantity</t>
   </si>
@@ -1302,21 +1302,6 @@
     <t>S70</t>
   </si>
   <si>
-    <t>Switch Toggle ON None ON SPDT Round Lever PC Pins 5A 250VAC 28VDC PC Mount with Threads</t>
-  </si>
-  <si>
-    <t>EG2361</t>
-  </si>
-  <si>
-    <t>EG2352</t>
-  </si>
-  <si>
-    <t>100SP1T1B1M2QEH</t>
-  </si>
-  <si>
-    <t>EG2352-ND</t>
-  </si>
-  <si>
     <t>S71</t>
   </si>
   <si>
@@ -1627,6 +1612,18 @@
   </si>
   <si>
     <t>2201-R921923000-ND</t>
+  </si>
+  <si>
+    <t>Switch Toggle ON ON SPDT Round Lever PC Pins 5A 250VAC 28VDC PC Mount with Threads</t>
+  </si>
+  <si>
+    <t>EG5748-ND</t>
+  </si>
+  <si>
+    <t>EG5748</t>
+  </si>
+  <si>
+    <t>100SP1T1B1M3QEH</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +2015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E6F5B-EB18-4853-97FF-935A9417A28D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,12 +2040,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2062,19 +2062,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2751,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2784,7 +2784,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3848,32 +3848,32 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,30 +3881,30 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3912,30 +3912,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3943,30 +3943,30 @@
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3974,30 +3974,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4005,30 +4005,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,30 +4036,30 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,30 +4067,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,35 +4098,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
@@ -4361,20 +4361,20 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4508,13 +4508,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
@@ -4527,13 +4527,13 @@
         <v>167</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4607,10 +4607,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>179</v>
@@ -4626,7 +4626,7 @@
         <v>180</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
@@ -4640,10 +4640,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>179</v>
@@ -4800,27 +4800,27 @@
         <v>423</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>424</v>
+        <v>528</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>425</v>
+        <v>529</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
         <v>409</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>428</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4828,30 +4828,30 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
         <v>409</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4859,30 +4859,30 @@
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
         <v>404</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4890,30 +4890,30 @@
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4921,30 +4921,30 @@
         <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
         <v>409</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4952,34 +4952,34 @@
         <v>7</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B538219E-E95C-440D-BAA7-88E53C52349F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33835A78-E0E9-4F37-BFFD-4CD6BF9EAD14}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="535">
   <si>
     <t>Quantity</t>
   </si>
@@ -1624,6 +1624,15 @@
   </si>
   <si>
     <t>100SP1T1B1M3QEH</t>
+  </si>
+  <si>
+    <t>Changelog:</t>
+  </si>
+  <si>
+    <t>The partnumber for S70 has been updated</t>
+  </si>
+  <si>
+    <t>Juli 27</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +2027,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,6 +4987,19 @@
         <v>450</v>
       </c>
     </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33835A78-E0E9-4F37-BFFD-4CD6BF9EAD14}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5AABDD-5E15-4667-9C1F-487404B5713D}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="538">
   <si>
     <t>Quantity</t>
   </si>
@@ -492,9 +492,6 @@
     <t>AliExpress</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Pot1, Pot70</t>
   </si>
   <si>
@@ -1092,9 +1089,6 @@
     <t>RMCP2512FT4R02</t>
   </si>
   <si>
-    <t>738-RMCP2512FT4R02CT-ND</t>
-  </si>
-  <si>
     <t>R100</t>
   </si>
   <si>
@@ -1633,14 +1627,37 @@
   </si>
   <si>
     <t>Juli 27</t>
+  </si>
+  <si>
+    <t>738-RMCP2512FT4R02ND-ND</t>
+  </si>
+  <si>
+    <t>Juli 28</t>
+  </si>
+  <si>
+    <t>Corrected digikey p/n for R80, R81, R86, R90</t>
+  </si>
+  <si>
+    <t>See blog for details</t>
+  </si>
+  <si>
+    <t>Added comment for P70, P71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1689,7 +1706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,6 +1727,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,10 +2052,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,12 +2074,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2071,19 +2096,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2580,30 +2605,30 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2611,30 +2636,30 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2642,30 +2667,30 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2673,30 +2698,30 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2704,30 +2729,30 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2735,32 +2760,32 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="H25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2768,32 +2793,32 @@
         <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2801,32 +2826,32 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,32 +2859,32 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2867,32 +2892,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2900,32 +2925,32 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="J30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2933,32 +2958,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2966,32 +2991,32 @@
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2999,32 +3024,32 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3032,32 +3057,32 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3065,32 +3090,32 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3098,32 +3123,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3131,32 +3156,32 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3164,32 +3189,32 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3197,32 +3222,32 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3230,32 +3255,32 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3263,32 +3288,32 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="H41" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3296,32 +3321,32 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3329,32 +3354,32 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,32 +3387,32 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3395,32 +3420,32 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3428,32 +3453,32 @@
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,32 +3486,32 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3494,32 +3519,32 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3527,32 +3552,32 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3560,32 +3585,32 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="J50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>354</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3593,32 +3618,32 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="J51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3626,32 +3651,32 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="J52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3659,32 +3684,32 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="J53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3692,32 +3717,32 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3725,32 +3750,32 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3758,32 +3783,32 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="J56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3791,32 +3816,32 @@
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="J57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3824,32 +3849,32 @@
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3857,32 +3882,32 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3890,30 +3915,30 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3921,30 +3946,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3952,30 +3977,30 @@
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3983,30 +4008,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4014,30 +4039,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4045,30 +4070,30 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4076,30 +4101,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4107,35 +4132,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4339,7 +4364,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
@@ -4370,20 +4395,20 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4472,11 +4497,11 @@
       <c r="I80" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="10" t="s">
         <v>153</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>154</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,32 +4509,32 @@
         <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4517,32 +4542,32 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="I82" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4550,32 +4575,32 @@
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="I83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4583,32 +4608,32 @@
         <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="J84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4616,32 +4641,32 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="H85" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4649,32 +4674,32 @@
         <v>2</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="H86" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="J86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4682,30 +4707,30 @@
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4713,30 +4738,30 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4744,30 +4769,30 @@
         <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I89" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4775,30 +4800,30 @@
         <v>2</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4806,30 +4831,30 @@
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4837,30 +4862,30 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4868,30 +4893,30 @@
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4899,30 +4924,30 @@
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I94" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4930,30 +4955,30 @@
         <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4961,44 +4986,90 @@
         <v>7</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+      <c r="C99" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>533</v>
-      </c>
+      <c r="C100" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="9"/>
+      <c r="C101" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F5AABDD-5E15-4667-9C1F-487404B5713D}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D130D68-F81F-4161-963E-645A222C28FD}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="546">
   <si>
     <t>Quantity</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>1276-1249-6-ND</t>
-  </si>
-  <si>
     <t>C2, C4, C6, C8, C12, C14, C16, C21, C22, C24, C28, C32, C34, C38, C40, C44, C46, C48, C50, C52, C76, C78, C80, C82, C100, C102, C121</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>CL21B105KBFNNNE</t>
   </si>
   <si>
-    <t>1276-1029-6-ND</t>
-  </si>
-  <si>
     <t>C3, C42, C71, C73, C120</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>C0805C101J5GACTU</t>
   </si>
   <si>
-    <t>399-1122-6-ND</t>
-  </si>
-  <si>
     <t>C15, C23, C26, C30, C31, C36, C39, C84</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>C0805C100K5GACTU</t>
   </si>
   <si>
-    <t>399-7975-1-ND, 399-7975-6-ND</t>
-  </si>
-  <si>
     <t>C41</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>BAV199,215</t>
   </si>
   <si>
-    <t>1727-2909-6-ND</t>
-  </si>
-  <si>
     <t>D21, D23</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>SMF15A-E3-08</t>
   </si>
   <si>
-    <t>SMF15A-E3-08DKR-ND</t>
-  </si>
-  <si>
     <t>D25</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>ON Semiconductor / Fairchild</t>
   </si>
   <si>
-    <t>MMBD1503ADKR-ND</t>
-  </si>
-  <si>
     <t>D70, D120</t>
   </si>
   <si>
@@ -1629,9 +1608,6 @@
     <t>Juli 27</t>
   </si>
   <si>
-    <t>738-RMCP2512FT4R02ND-ND</t>
-  </si>
-  <si>
     <t>Juli 28</t>
   </si>
   <si>
@@ -1642,13 +1618,61 @@
   </si>
   <si>
     <t>Added comment for P70, P71</t>
+  </si>
+  <si>
+    <t>1276-1249-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1029-1-ND</t>
+  </si>
+  <si>
+    <t>399-C0805C101J5GAC7800CT-ND</t>
+  </si>
+  <si>
+    <t>399-C0805C100K5GAC7800CT-ND</t>
+  </si>
+  <si>
+    <t>1727-2909-1-ND</t>
+  </si>
+  <si>
+    <t>SMF15A-E3-08-ND</t>
+  </si>
+  <si>
+    <t>MMBD1503ACT-ND</t>
+  </si>
+  <si>
+    <t>738-RMCP2512FT4R02CT-ND</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for R80, R81, R86, R90</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for C1 et all</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for C2 et all</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for D20, D22, D24</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for D25</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for D21, D23</t>
+  </si>
+  <si>
+    <t>1189-2237-ND</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for C15 at all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1660,6 +1684,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2052,10 +2082,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,12 +2104,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2096,19 +2126,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2147,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>15</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2155,32 +2185,32 @@
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>20</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2188,32 +2218,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>26</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2221,32 +2251,32 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>37</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2254,32 +2284,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2287,32 +2317,32 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2320,32 +2350,32 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,30 +2383,30 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2384,30 +2414,30 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>70</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2415,30 +2445,30 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>77</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2446,32 +2476,32 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>83</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2479,30 +2509,30 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2510,32 +2540,32 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2543,30 +2573,30 @@
         <v>1</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,30 +2604,30 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2605,30 +2635,30 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,30 +2666,30 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2667,30 +2697,30 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2698,30 +2728,30 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2729,30 +2759,30 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2760,32 +2790,32 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2793,32 +2823,32 @@
         <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,32 +2856,32 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,32 +2889,32 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2892,32 +2922,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2925,32 +2955,32 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2958,32 +2988,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2991,32 +3021,32 @@
         <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3024,32 +3054,32 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3057,32 +3087,32 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3090,32 +3120,32 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3123,32 +3153,32 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3156,32 +3186,32 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3189,32 +3219,32 @@
         <v>1</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3222,32 +3252,32 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3255,32 +3285,32 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3288,32 +3318,32 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3321,32 +3351,32 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3354,32 +3384,32 @@
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3387,32 +3417,32 @@
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3420,32 +3450,32 @@
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3453,32 +3483,32 @@
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3486,32 +3516,32 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3519,32 +3549,32 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3552,32 +3582,32 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3585,32 +3615,32 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3618,32 +3648,32 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3651,32 +3681,32 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3684,32 +3714,32 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3717,32 +3747,32 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3750,32 +3780,32 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3783,32 +3813,32 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3816,32 +3846,32 @@
         <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3849,32 +3879,32 @@
         <v>1</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3882,32 +3912,32 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3915,30 +3945,30 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3946,30 +3976,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3977,30 +4007,30 @@
         <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4008,30 +4038,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4039,30 +4069,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4070,30 +4100,30 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4101,30 +4131,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,35 +4162,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4168,63 +4198,65 @@
         <v>8</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K70" s="3"/>
+      <c r="K70" s="4" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4232,30 +4264,30 @@
         <v>1</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4263,30 +4295,30 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4294,28 +4326,28 @@
         <v>1</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4323,30 +4355,30 @@
         <v>2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,30 +4386,30 @@
         <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4385,30 +4417,30 @@
         <v>2</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4416,30 +4448,30 @@
         <v>2</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4447,30 +4479,30 @@
         <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4478,30 +4510,30 @@
         <v>2</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4509,32 +4541,32 @@
         <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4542,32 +4574,32 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4575,32 +4607,32 @@
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4608,32 +4640,32 @@
         <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4641,32 +4673,32 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4674,32 +4706,32 @@
         <v>2</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4707,30 +4739,30 @@
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4738,30 +4770,30 @@
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4769,30 +4801,30 @@
         <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4800,30 +4832,30 @@
         <v>2</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4831,30 +4863,30 @@
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4862,30 +4894,30 @@
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4893,30 +4925,30 @@
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4924,30 +4956,30 @@
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4955,30 +4987,30 @@
         <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4986,92 +5018,111 @@
         <v>7</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
       <c r="C101" s="11" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="11" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="C103" s="11" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="C104" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="C105" s="11" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="C106" s="11" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="C107" s="11" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="C108" s="11" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
     </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D130D68-F81F-4161-963E-645A222C28FD}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFC743D-C448-462D-BABB-A94A6B226205}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="548">
   <si>
     <t>Quantity</t>
   </si>
@@ -1479,12 +1479,6 @@
     <t>OPA209A</t>
   </si>
   <si>
-    <t>OPA209AIDR</t>
-  </si>
-  <si>
-    <t>OPA209AIDR-ND</t>
-  </si>
-  <si>
     <t>U24, U25</t>
   </si>
   <si>
@@ -1666,6 +1660,18 @@
   </si>
   <si>
     <t>Corrected Digikey p/n for C15 at all</t>
+  </si>
+  <si>
+    <t>OPA209AID</t>
+  </si>
+  <si>
+    <t>296-28030-5-ND</t>
+  </si>
+  <si>
+    <t>Juli 29</t>
+  </si>
+  <si>
+    <t>Corrected p/n's for U22, U23</t>
   </si>
 </sst>
 </file>
@@ -2084,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,12 +2110,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,19 +2132,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2177,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2210,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2243,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2276,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2437,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2468,7 +2474,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,7 +2507,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2815,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2848,7 +2854,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2980,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3079,7 +3085,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3640,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4117,13 +4123,13 @@
         <v>460</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,30 +4137,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4162,35 +4168,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>458</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
         <v>460</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4223,7 +4229,7 @@
         <v>14</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4396,7 +4402,7 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
@@ -4427,20 +4433,20 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
         <v>122</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4533,7 +4539,7 @@
         <v>146</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4574,13 +4580,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
@@ -4593,13 +4599,13 @@
         <v>159</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4673,10 +4679,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>171</v>
@@ -4692,7 +4698,7 @@
         <v>172</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
@@ -4706,10 +4712,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>171</v>
@@ -4866,27 +4872,27 @@
         <v>414</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
         <v>400</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5046,76 +5052,80 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
       <c r="C101" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
       <c r="C104" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
       <c r="C105" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
+      <c r="B109" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>

--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{75807CD1-2A99-4892-B924-5670C5C47528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFC743D-C448-462D-BABB-A94A6B226205}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{247CAFBF-98D2-4357-AB30-0D07A1689604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="1560" yWindow="1275" windowWidth="21600" windowHeight="16725" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="550">
   <si>
     <t>Quantity</t>
   </si>
@@ -1608,9 +1608,6 @@
     <t>Corrected digikey p/n for R80, R81, R86, R90</t>
   </si>
   <si>
-    <t>See blog for details</t>
-  </si>
-  <si>
     <t>Added comment for P70, P71</t>
   </si>
   <si>
@@ -1672,13 +1669,22 @@
   </si>
   <si>
     <t>Corrected p/n's for U22, U23</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/4000140932878.html</t>
+  </si>
+  <si>
+    <t>Updated the link for the P70, 71 test adapters</t>
+  </si>
+  <si>
+    <t>Sep 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,6 +1702,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1739,10 +1753,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,8 +1786,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2090,8 +2112,8 @@
   </sheetPr>
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2216,7 +2238,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,7 +2271,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2282,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2443,7 +2465,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2507,7 +2529,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3646,7 +3668,7 @@
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4123,13 +4145,13 @@
         <v>460</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,7 +4251,7 @@
         <v>14</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4538,8 +4560,8 @@
       <c r="J80" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>526</v>
+      <c r="K80" s="12" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5074,66 +5096,73 @@
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
       <c r="C101" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
       <c r="C104" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
       <c r="C105" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
+      <c r="B110" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>548</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K80" r:id="rId1" xr:uid="{31854DCE-D22B-46B9-96F3-92D44A18FD02}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Front Board/BOM-FB-Rev2b.xlsx
+++ b/Front Board/BOM-FB-Rev2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Front Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{247CAFBF-98D2-4357-AB30-0D07A1689604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{247CAFBF-98D2-4357-AB30-0D07A1689604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82C98AAF-915A-491C-89F7-41CE350F4879}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1275" windowWidth="21600" windowHeight="16725" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26415" windowHeight="16365" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="584">
   <si>
     <t>Quantity</t>
   </si>
@@ -726,9 +726,6 @@
     <t>RK73H2ATTD4992F</t>
   </si>
   <si>
-    <t>R21</t>
-  </si>
-  <si>
     <t>RES 90.9K OHM 1% 1/4W 0805</t>
   </si>
   <si>
@@ -1678,6 +1675,111 @@
   </si>
   <si>
     <t>Sep 9</t>
+  </si>
+  <si>
+    <t>1V</t>
+  </si>
+  <si>
+    <t>1.5V</t>
+  </si>
+  <si>
+    <t>2V</t>
+  </si>
+  <si>
+    <t>3V</t>
+  </si>
+  <si>
+    <t>4V</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>71K5</t>
+  </si>
+  <si>
+    <t>54K9</t>
+  </si>
+  <si>
+    <t>41K2</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>26K1</t>
+  </si>
+  <si>
+    <t>18K7</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>9K53</t>
+  </si>
+  <si>
+    <t>10K7</t>
+  </si>
+  <si>
+    <t>13K3</t>
+  </si>
+  <si>
+    <t>17K8</t>
+  </si>
+  <si>
+    <t>21K5</t>
+  </si>
+  <si>
+    <t>7K5</t>
+  </si>
+  <si>
+    <t>2.5V</t>
+  </si>
+  <si>
+    <t>Pot20 alternative</t>
+  </si>
+  <si>
+    <t>563-2116-ND</t>
+  </si>
+  <si>
+    <t>Note: R21 changes to 9K09</t>
+  </si>
+  <si>
+    <t>R21 Note</t>
+  </si>
+  <si>
+    <t>With a 10K 5T Pot20, the value changes to 9K09</t>
+  </si>
+  <si>
+    <t>R21 Alternative</t>
+  </si>
+  <si>
+    <t>RES 9.09K OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>9.09K</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD9091F</t>
+  </si>
+  <si>
+    <t>2019-RK73H2ATTD9091FCT-ND</t>
+  </si>
+  <si>
+    <t>Resistor Values</t>
+  </si>
+  <si>
+    <t>FET Offset Max Voltages</t>
+  </si>
+  <si>
+    <t>Note maximum FET offset voltage selection below</t>
+  </si>
+  <si>
+    <t>POT 10K OHM 1W WIREWOUND LINEAR</t>
+  </si>
+  <si>
+    <t>M-1305 10K</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1817,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1728,8 +1830,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1752,12 +1860,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1772,25 +1971,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2110,10 +2347,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,17 +2364,18 @@
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2154,19 +2392,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2179,7 +2417,7 @@
       <c r="A5" s="3">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2205,14 +2443,14 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2238,7 +2476,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2271,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2304,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,7 +2703,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,7 +2734,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2529,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2563,7 +2801,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2596,7 +2834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -2627,7 +2865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -2658,7 +2896,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -2689,7 +2927,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -2720,7 +2958,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -2751,7 +2989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -2782,7 +3020,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -2813,7 +3051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -2843,14 +3081,14 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>16</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2876,10 +3114,10 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>8</v>
       </c>
@@ -2912,7 +3150,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2945,7 +3183,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -2978,7 +3216,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>8</v>
       </c>
@@ -3008,601 +3246,610 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>11</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>238</v>
+      <c r="L31" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="11" t="s">
+        <v>574</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>239</v>
+        <v>575</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>240</v>
+        <v>577</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>8</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>242</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>265</v>
+      <c r="B37" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>271</v>
+      <c r="B38" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>283</v>
+        <v>1</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="4" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3610,98 +3857,98 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
-        <v>343</v>
+        <v>157</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>534</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>203</v>
+        <v>341</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>351</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,32 +3956,32 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3742,32 +3989,32 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3775,32 +4022,32 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3808,32 +4055,32 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3841,98 +4088,98 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
-        <v>376</v>
+        <v>297</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3940,32 +4187,32 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>445</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E59" s="3"/>
       <c r="F59" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G59" s="3"/>
+        <v>387</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="H59" s="4" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3973,92 +4220,94 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E60" s="3"/>
+        <v>443</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="F60" s="4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
-        <v>453</v>
+        <v>93</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="J62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4066,30 +4315,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>93</v>
+        <v>459</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4097,61 +4346,61 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
-        <v>460</v>
+        <v>93</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,113 +4408,111 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="I67" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D69" s="6" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>8</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>541</v>
+      <c r="D70" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>27</v>
@@ -4278,13 +4525,13 @@
         <v>28</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>54</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4292,121 +4539,123 @@
         <v>1</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F72" s="4" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="4" t="s">
         <v>101</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4414,30 +4663,30 @@
         <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4" t="s">
-        <v>514</v>
+        <v>116</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4462,13 +4711,13 @@
         <v>122</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>516</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4476,172 +4725,170 @@
         <v>2</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>127</v>
+        <v>512</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
         <v>122</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>128</v>
+        <v>514</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>129</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="4" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G81" s="3"/>
       <c r="H81" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>507</v>
+        <v>147</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>510</v>
+        <v>149</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>511</v>
+        <v>153</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>506</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
@@ -4654,513 +4901,702 @@
         <v>159</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>162</v>
+        <v>510</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>504</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="11" t="s">
+        <v>569</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>505</v>
+        <v>164</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>392</v>
+        <v>503</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>393</v>
+        <v>507</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>394</v>
+        <v>171</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G87" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="H87" s="4" t="s">
-        <v>395</v>
+        <v>172</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>397</v>
+        <v>504</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>398</v>
+        <v>508</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G88" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="H88" s="4" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>517</v>
+        <v>403</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>518</v>
+        <v>404</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4" t="s">
-        <v>519</v>
+        <v>405</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>520</v>
+        <v>405</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>421</v>
+        <v>516</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>422</v>
+        <v>517</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="4" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>1</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>7</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="J98" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>523</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
+      <c r="C102" t="s">
         <v>524</v>
       </c>
-      <c r="C100" s="9" t="s">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
-      <c r="C101" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
-      <c r="C102" s="11" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-      <c r="C103" s="11" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-      <c r="C104" s="11" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="11" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
-      <c r="C106" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-      <c r="C107" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
-      <c r="C108" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>544</v>
+      </c>
+      <c r="C111" t="s">
         <v>545</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C112" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="27"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="15"/>
+      <c r="C119" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" s="16"/>
+      <c r="F119" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C110" s="11" t="s">
-        <v>548</v>
+      <c r="C120" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E120" s="20"/>
+      <c r="F120" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E121" s="20"/>
+      <c r="F121" s="21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="21" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="25" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C118:F118"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K80" r:id="rId1" xr:uid="{31854DCE-D22B-46B9-96F3-92D44A18FD02}"/>
+    <hyperlink ref="K81" r:id="rId1" xr:uid="{31854DCE-D22B-46B9-96F3-92D44A18FD02}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
